--- a/output/fyrst_wealth_sem.xlsx
+++ b/output/fyrst_wealth_sem.xlsx
@@ -1,154 +1,362 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fedbdb6a2bad2094/Documents/GitHub/parental-wealth-impact/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B992CDEF3B59F4747F829A3EBE92C8F3DFF7B6AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3503EF8-2D55-4314-8EA3-6503E55ED107}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>living_standard =~ ownership_vehicle</t>
-  </si>
-  <si>
-    <t>living_standard =~ ownership</t>
-  </si>
-  <si>
-    <t>living_standard =~ subj_status</t>
-  </si>
-  <si>
-    <t>living_standard ~ age_husb</t>
-  </si>
-  <si>
-    <t>living_standard ~ urbanhukou_husb</t>
-  </si>
-  <si>
-    <t>living_standard ~ education_years_husb</t>
-  </si>
-  <si>
-    <t>living_standard ~ job_husb</t>
-  </si>
-  <si>
-    <t>living_standard ~ party_husb</t>
-  </si>
-  <si>
-    <t>living_standard ~ hh_income_logged</t>
-  </si>
-  <si>
-    <t>living_standard ~ education_years_husb_father</t>
-  </si>
-  <si>
-    <t>living_standard ~ ownership_husb_father</t>
-  </si>
-  <si>
-    <t>nobs</t>
-  </si>
-  <si>
-    <t>agfi</t>
-  </si>
-  <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>BIC</t>
-  </si>
-  <si>
-    <t>cfi</t>
-  </si>
-  <si>
-    <t>chisq</t>
-  </si>
-  <si>
-    <t>npar</t>
-  </si>
-  <si>
-    <t>rmsea</t>
-  </si>
-  <si>
-    <t>rmsea.conf.high</t>
-  </si>
-  <si>
-    <t>srmr</t>
-  </si>
-  <si>
-    <t>tli</t>
-  </si>
-  <si>
-    <t>converged</t>
-  </si>
-  <si>
-    <t>estimator</t>
-  </si>
-  <si>
-    <t>ngroups</t>
-  </si>
-  <si>
-    <t>missing_method</t>
-  </si>
-  <si>
-    <t>nobs.1</t>
-  </si>
-  <si>
-    <t>norig</t>
-  </si>
-  <si>
-    <t>nexcluded</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard =~ ownership_vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard =~ ownership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard =~ subj_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~ age_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~ urbanhukou_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~ education_years_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~ job_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~ party_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~ hh_income_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~ education_years_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ownership_vehicle ~~ ownership_vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ownership ~~ ownership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subj_status ~~ subj_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_standard ~~ living_standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_husb ~~ age_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_husb ~~ urbanhukou_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_husb ~~ education_years_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_husb ~~ job_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_husb ~~ party_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_husb ~~ hh_income_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_husb ~~ education_years_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_husb ~~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanhukou_husb ~~ urbanhukou_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanhukou_husb ~~ education_years_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanhukou_husb ~~ job_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanhukou_husb ~~ party_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanhukou_husb ~~ hh_income_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanhukou_husb ~~ education_years_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanhukou_husb ~~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education_years_husb ~~ education_years_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education_years_husb ~~ job_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education_years_husb ~~ party_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education_years_husb ~~ hh_income_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education_years_husb ~~ education_years_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education_years_husb ~~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_husb ~~ job_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_husb ~~ party_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_husb ~~ hh_income_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_husb ~~ education_years_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_husb ~~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">party_husb ~~ party_husb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">party_husb ~~ hh_income_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">party_husb ~~ education_years_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">party_husb ~~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_income_logged ~~ hh_income_logged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_income_logged ~~ education_years_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_income_logged ~~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education_years_husb_father ~~ education_years_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education_years_husb_father ~~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ownership_husb_father ~~ ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chisq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmsea.conf.high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngroups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nobs.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nexcluded</t>
   </si>
   <si>
     <t xml:space="preserve"> *** p &lt; 0.001;  ** p &lt; 0.01;  * p &lt; 0.05.</t>
   </si>
   <si>
-    <t>Model 1</t>
-  </si>
-  <si>
-    <t>1.00 (0.00)</t>
-  </si>
-  <si>
-    <t>0.60 *** (0.08)</t>
-  </si>
-  <si>
-    <t>1.21 *** (0.15)</t>
-  </si>
-  <si>
-    <t>0.01 ** (0.00)</t>
-  </si>
-  <si>
-    <t>-0.03 (0.02)</t>
-  </si>
-  <si>
-    <t>0.02 *** (0.00)</t>
-  </si>
-  <si>
-    <t>0.06 * (0.03)</t>
-  </si>
-  <si>
-    <t>0.03 (0.04)</t>
-  </si>
-  <si>
-    <t>0.06 *** (0.01)</t>
-  </si>
-  <si>
-    <t>0.00 (0.00)</t>
-  </si>
-  <si>
-    <t>0.06 *** (0.02)</t>
+    <t xml:space="preserve">Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60 *** (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21 *** (0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 ** (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 *** (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 * (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.00 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.64 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.53 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.44 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49 (0.00)</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -166,8 +374,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -189,7 +403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -198,94 +412,127 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -567,272 +814,590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="NA" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="NA" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="NA" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" ht="NA" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" ht="NA" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" ht="NA" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="NA" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" ht="NA" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" ht="NA" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" ht="NA" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" ht="NA" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" ht="NA" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" ht="NA" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>5792.57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" ht="NA" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>5864.46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" ht="NA" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" ht="NA" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
-        <v>74.819999999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" ht="NA" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" ht="NA" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="NA" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" ht="NA" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" ht="NA" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" ht="NA" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" ht="NA" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" ht="NA" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" ht="NA" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" ht="NA" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="NA" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" ht="NA" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" ht="NA" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" ht="NA" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" ht="NA" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" ht="NA" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" ht="NA" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" ht="NA" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" ht="NA" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" ht="NA" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" ht="NA" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" ht="NA" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" ht="NA" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" ht="NA" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" ht="NA" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" ht="NA" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="55" ht="NA" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="n">
+        <v>5792.57</v>
+      </c>
+    </row>
+    <row r="56" ht="NA" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="n">
+        <v>5864.46</v>
+      </c>
+    </row>
+    <row r="57" ht="NA" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="58" ht="NA" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="n">
+        <v>74.82</v>
+      </c>
+    </row>
+    <row r="59" ht="NA" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="NA" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" ht="NA" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="62" ht="NA" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" ht="NA" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="64" ht="NA" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" ht="NA" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" ht="NA" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="NA" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" ht="NA" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="69" ht="NA" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="n">
         <v>1265</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7">
+    <row r="70" ht="NA" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    <row r="71" ht="NA" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A71:B71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>